--- a/data/interim/summarizing_management_table.xlsx
+++ b/data/interim/summarizing_management_table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">species</t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">Dijle - Dyle</t>
   </si>
   <si>
-    <t xml:space="preserve">20</t>
+    <t xml:space="preserve">21</t>
   </si>
   <si>
     <t xml:space="preserve">22</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">Hydrocotyle ranunculoides</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
+    <t xml:space="preserve">16</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
+    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">≤ 6</t>
@@ -92,12 +92,6 @@
     <t xml:space="preserve">Impatiens glandulifera</t>
   </si>
   <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
     <t xml:space="preserve">28</t>
   </si>
   <si>
@@ -107,7 +101,7 @@
     <t xml:space="preserve">Ludwigia grandiflora</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
+    <t xml:space="preserve">11</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -116,13 +110,13 @@
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Myriophyllum aquaticum</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
   </si>
 </sst>
 </file>
@@ -516,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -581,10 +575,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -615,10 +609,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -626,16 +620,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -643,16 +637,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -660,16 +654,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
         <v>24</v>
@@ -677,16 +671,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
@@ -694,16 +688,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -711,7 +705,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -720,7 +714,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
